--- a/data/OPアンプの基礎応用.xlsx
+++ b/data/OPアンプの基礎応用.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/washio/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/washio/Documents/GitHub/report_operational_amplifiers/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDD3308-CD69-B54B-897B-6792FFDE715E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4F12B1-A546-0241-A751-A9974AC7EEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1780" windowWidth="37220" windowHeight="23800" activeTab="4" xr2:uid="{611DEB04-5709-3B48-97EA-3D628432E6E5}"/>
+    <workbookView xWindow="41760" yWindow="9720" windowWidth="37220" windowHeight="23800" activeTab="4" xr2:uid="{611DEB04-5709-3B48-97EA-3D628432E6E5}"/>
   </bookViews>
   <sheets>
     <sheet name="実験1反転増幅" sheetId="1" r:id="rId1"/>
@@ -826,37 +826,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-180</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-180</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7500000000000009</c:v>
+                  <c:v>-173.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>-162</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.000000000000004</c:v>
+                  <c:v>-153</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>-144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54</c:v>
+                  <c:v>-126</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72</c:v>
+                  <c:v>-108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72</c:v>
+                  <c:v>-108</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90</c:v>
+                  <c:v>-90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15180,7 +15180,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -15676,7 +15676,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H10" sqref="A3:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -16000,7 +16000,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -16415,7 +16415,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -16728,7 +16728,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -16810,8 +16810,8 @@
         <v>10000</v>
       </c>
       <c r="H3">
-        <f>(D3/G3)*360</f>
-        <v>0</v>
+        <f>((D3/G3)*360)-180</f>
+        <v>-180</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -16840,8 +16840,8 @@
         <v>5000</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H13" si="3">(D4/G4)*360</f>
-        <v>0</v>
+        <f>((D4/G4)*360)-180</f>
+        <v>-180</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -16870,8 +16870,8 @@
         <v>2000</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>((D5/G5)*360)-180</f>
+        <v>-180</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -16888,20 +16888,20 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6" si="4">ABS(C6/B6)</f>
+        <f t="shared" ref="E6" si="3">ABS(C6/B6)</f>
         <v>0.30499999999999999</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6" si="5">20*LOG10(E6)</f>
+        <f t="shared" ref="F6" si="4">20*LOG10(E6)</f>
         <v>-10.314003213064284</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6" si="6">1/(A6)*1000</f>
+        <f t="shared" ref="G6" si="5">1/(A6)*1000</f>
         <v>1333.3333333333333</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6" si="7">(D6/G6)*360</f>
-        <v>6.7500000000000009</v>
+        <f>((D6/G6)*360)-180</f>
+        <v>-173.25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -16930,8 +16930,8 @@
         <v>1000</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f>((D7/G7)*360)-180</f>
+        <v>-162</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -16948,20 +16948,20 @@
         <v>50</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8" si="8">ABS(C8/B8)</f>
+        <f t="shared" ref="E8" si="6">ABS(C8/B8)</f>
         <v>0.3</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8" si="9">20*LOG10(E8)</f>
+        <f t="shared" ref="F8" si="7">20*LOG10(E8)</f>
         <v>-10.457574905606752</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8" si="10">1/(A8)*1000</f>
+        <f t="shared" ref="G8" si="8">1/(A8)*1000</f>
         <v>666.66666666666663</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8" si="11">(D8/G8)*360</f>
-        <v>27.000000000000004</v>
+        <f>((D8/G8)*360)-180</f>
+        <v>-153</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -16990,8 +16990,8 @@
         <v>500</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
-        <v>36</v>
+        <f>((D9/G9)*360)-180</f>
+        <v>-144</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -17020,8 +17020,8 @@
         <v>200</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
-        <v>54</v>
+        <f>((D10/G10)*360)-180</f>
+        <v>-126</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -17050,8 +17050,8 @@
         <v>100</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
-        <v>72</v>
+        <f>((D11/G11)*360)-180</f>
+        <v>-108</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -17080,8 +17080,8 @@
         <v>50</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
-        <v>72</v>
+        <f>((D12/G12)*360)-180</f>
+        <v>-108</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -17110,8 +17110,8 @@
         <v>20</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <f>((D13/G13)*360)-180</f>
+        <v>-90</v>
       </c>
     </row>
   </sheetData>
@@ -18054,8 +18054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1A3B9C-72EB-D146-A688-E692EF7AAE67}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="H28" sqref="A3:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/data/OPアンプの基礎応用.xlsx
+++ b/data/OPアンプの基礎応用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/washio/Documents/GitHub/report_operational_amplifiers/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4F12B1-A546-0241-A751-A9974AC7EEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBB4F21-BE65-E84C-86D4-ECD4025244A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41760" yWindow="9720" windowWidth="37220" windowHeight="23800" activeTab="4" xr2:uid="{611DEB04-5709-3B48-97EA-3D628432E6E5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="6" xr2:uid="{611DEB04-5709-3B48-97EA-3D628432E6E5}"/>
   </bookViews>
   <sheets>
     <sheet name="実験1反転増幅" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="20">
   <si>
     <t>周波数[kHz]</t>
     <rPh sb="0" eb="3">
@@ -172,6 +172,9 @@
       <t>コウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/Users/washio/Documents/GitHub/report_operational_amplifiers/tex/spp.tex</t>
   </si>
 </sst>
 </file>
@@ -6250,37 +6253,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-9.89700043360188</c:v>
+                  <c:v>8.1647993062369917</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-10.102999566398118</c:v>
+                  <c:v>7.9588001734407516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10.102999566398118</c:v>
+                  <c:v>7.9588001734407516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-10.314003213064284</c:v>
+                  <c:v>7.7477965267745885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-10.314003213064284</c:v>
+                  <c:v>7.7477965267745885</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10.457574905606752</c:v>
+                  <c:v>7.6042248342321201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-10.903102799829796</c:v>
+                  <c:v>7.158696940009075</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-11.784455332455803</c:v>
+                  <c:v>6.2773444073830689</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-14.89454989793388</c:v>
+                  <c:v>3.1672498419049928</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-17.721132953863265</c:v>
+                  <c:v>0.3406667859756074</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-20.264565314675103</c:v>
+                  <c:v>-2.2027655748362309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16727,8 +16730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36C5275-F5DF-E34C-B038-68E21E104E90}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="88" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -16789,7 +16792,7 @@
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C3">
         <v>1.28</v>
@@ -16799,11 +16802,11 @@
       </c>
       <c r="E3">
         <f>ABS(C3/B3)</f>
-        <v>0.32</v>
+        <v>2.56</v>
       </c>
       <c r="F3">
         <f>20*LOG10(E3)</f>
-        <v>-9.89700043360188</v>
+        <v>8.1647993062369917</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G13" si="0">1/(A3)*1000</f>
@@ -16819,7 +16822,7 @@
         <v>0.2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C4">
         <v>1.25</v>
@@ -16829,11 +16832,11 @@
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E13" si="1">ABS(C4/B4)</f>
-        <v>0.3125</v>
+        <v>2.5</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F13" si="2">20*LOG10(E4)</f>
-        <v>-10.102999566398118</v>
+        <v>7.9588001734407516</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
@@ -16849,7 +16852,7 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C5">
         <v>1.25</v>
@@ -16859,11 +16862,11 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>0.3125</v>
+        <v>2.5</v>
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>-10.102999566398118</v>
+        <v>7.9588001734407516</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
@@ -16879,7 +16882,7 @@
         <v>0.75</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
         <v>1.22</v>
@@ -16889,11 +16892,11 @@
       </c>
       <c r="E6">
         <f t="shared" ref="E6" si="3">ABS(C6/B6)</f>
-        <v>0.30499999999999999</v>
+        <v>2.44</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6" si="4">20*LOG10(E6)</f>
-        <v>-10.314003213064284</v>
+        <v>7.7477965267745885</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6" si="5">1/(A6)*1000</f>
@@ -16909,7 +16912,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
         <v>1.22</v>
@@ -16919,11 +16922,11 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>0.30499999999999999</v>
+        <v>2.44</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>-10.314003213064284</v>
+        <v>7.7477965267745885</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -16939,7 +16942,7 @@
         <v>1.5</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
         <v>1.2</v>
@@ -16949,11 +16952,11 @@
       </c>
       <c r="E8">
         <f t="shared" ref="E8" si="6">ABS(C8/B8)</f>
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="F8">
         <f t="shared" ref="F8" si="7">20*LOG10(E8)</f>
-        <v>-10.457574905606752</v>
+        <v>7.6042248342321201</v>
       </c>
       <c r="G8">
         <f t="shared" ref="G8" si="8">1/(A8)*1000</f>
@@ -16969,7 +16972,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
         <v>1.1399999999999999</v>
@@ -16979,11 +16982,11 @@
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>-10.903102799829796</v>
+        <v>7.158696940009075</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -16999,7 +17002,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
         <v>1.03</v>
@@ -17009,11 +17012,11 @@
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>0.25750000000000001</v>
+        <v>2.06</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>-11.784455332455803</v>
+        <v>6.2773444073830689</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -17029,7 +17032,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C11">
         <v>0.72</v>
@@ -17039,11 +17042,11 @@
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>0.18</v>
+        <v>1.44</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>-14.89454989793388</v>
+        <v>3.1672498419049928</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -17059,7 +17062,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C12">
         <v>0.52</v>
@@ -17069,11 +17072,11 @@
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>0.13</v>
+        <v>1.04</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>-17.721132953863265</v>
+        <v>0.3406667859756074</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -17089,7 +17092,7 @@
         <v>50</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C13">
         <v>0.38800000000000001</v>
@@ -17099,11 +17102,11 @@
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>9.7000000000000003E-2</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>-20.264565314675103</v>
+        <v>-2.2027655748362309</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
@@ -18052,10 +18055,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1A3B9C-72EB-D146-A688-E692EF7AAE67}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="H28" sqref="A3:H28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -18932,6 +18935,11 @@
         <v>-90</v>
       </c>
     </row>
+    <row r="31" spans="1:8">
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>

--- a/data/OPアンプの基礎応用.xlsx
+++ b/data/OPアンプの基礎応用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/washio/Documents/GitHub/report_operational_amplifiers/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBB4F21-BE65-E84C-86D4-ECD4025244A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AE32E7-CADE-BF46-A05C-42125DD47D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="6" xr2:uid="{611DEB04-5709-3B48-97EA-3D628432E6E5}"/>
+    <workbookView xWindow="40540" yWindow="13440" windowWidth="32480" windowHeight="27180" activeTab="4" xr2:uid="{611DEB04-5709-3B48-97EA-3D628432E6E5}"/>
   </bookViews>
   <sheets>
     <sheet name="実験1反転増幅" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="20">
   <si>
     <t>周波数[kHz]</t>
     <rPh sb="0" eb="3">
@@ -181,6 +181,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -206,12 +209,129 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -220,12 +340,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3729,7 +3894,7 @@
             <c:numRef>
               <c:f>'実験2-2基本微分'!$F$3:$F$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-9.6297212024422496</c:v>
@@ -3888,7 +4053,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4569,7 +4734,7 @@
             <c:numRef>
               <c:f>'実験2-3実用微分'!$F$3:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>-15.917600346881503</c:v>
@@ -4737,7 +4902,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4995,7 +5160,7 @@
             <c:numRef>
               <c:f>'実験2-3実用微分'!$H$3:$H$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>90</c:v>
@@ -5163,7 +5328,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5410,7 +5575,7 @@
             <c:numRef>
               <c:f>'実験3-2基本積分'!$F$3:$F$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>27.158696940009076</c:v>
@@ -5569,7 +5734,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5835,7 +6000,7 @@
             <c:numRef>
               <c:f>'実験3-2基本積分'!$H$3:$H$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-80.999999999999986</c:v>
@@ -5994,7 +6159,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6250,7 +6415,7 @@
             <c:numRef>
               <c:f>'実験3-3実用積分'!$F$3:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>8.1647993062369917</c:v>
@@ -6418,7 +6583,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -15180,10 +15345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292DBB35-CE1E-4545-A789-4E42051D81DD}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+      <selection activeCell="L16" sqref="L1:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -15197,7 +15362,7 @@
     <col min="12" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15212,8 +15377,22 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
+      <c r="L1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:19" ht="21" thickBot="1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -15241,8 +15420,32 @@
       <c r="J2" t="s">
         <v>10</v>
       </c>
+      <c r="L2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:19" ht="21" thickTop="1">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -15271,8 +15474,37 @@
         <f>(D3/G3)*360</f>
         <v>0</v>
       </c>
+      <c r="L3" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="M3" s="11">
+        <v>2</v>
+      </c>
+      <c r="N3" s="11">
+        <f xml:space="preserve"> 8.64 / 2</f>
+        <v>4.32</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11">
+        <f>ABS(N3/M3)</f>
+        <v>2.16</v>
+      </c>
+      <c r="Q3" s="12">
+        <f>20*LOG10(P3)</f>
+        <v>6.689075023018618</v>
+      </c>
+      <c r="R3" s="12">
+        <f t="shared" ref="R3:R16" si="1">1/(L3)*1000</f>
+        <v>10000</v>
+      </c>
+      <c r="S3" s="13">
+        <f>(O3/R3)*360</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>0.2</v>
       </c>
@@ -15286,11 +15518,11 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E16" si="1">ABS(C4/B4)</f>
+        <f t="shared" ref="E4:E16" si="2">ABS(C4/B4)</f>
         <v>2.1</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F16" si="2">20*LOG10(E4)</f>
+        <f t="shared" ref="F4:F16" si="3">20*LOG10(E4)</f>
         <v>6.4443858946783861</v>
       </c>
       <c r="G4">
@@ -15298,11 +15530,40 @@
         <v>5000</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H16" si="3">(D4/G4)*360</f>
+        <f t="shared" ref="H4:H16" si="4">(D4/G4)*360</f>
         <v>0</v>
       </c>
+      <c r="L4" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="4">
+        <v>2</v>
+      </c>
+      <c r="N4" s="4">
+        <f xml:space="preserve"> 8.4 / 2</f>
+        <v>4.2</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" ref="P4:P16" si="5">ABS(N4/M4)</f>
+        <v>2.1</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" ref="Q4:Q16" si="6">20*LOG10(P4)</f>
+        <v>6.4443858946783861</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S4" s="9">
+        <f t="shared" ref="S4:S16" si="7">(O4/R4)*360</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>0.5</v>
       </c>
@@ -15316,11 +15577,11 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.4443858946783861</v>
       </c>
       <c r="G5">
@@ -15328,11 +15589,40 @@
         <v>2000</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="L5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2</v>
+      </c>
+      <c r="N5" s="4">
+        <f xml:space="preserve"> 8.4 / 2</f>
+        <v>4.2</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" si="5"/>
+        <v>2.1</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="6"/>
+        <v>6.4443858946783861</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="S5" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>1</v>
       </c>
@@ -15346,11 +15636,11 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.4443858946783861</v>
       </c>
       <c r="G6">
@@ -15358,11 +15648,40 @@
         <v>1000</v>
       </c>
       <c r="H6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4">
+        <f xml:space="preserve"> 8.4 / 2</f>
+        <v>4.2</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" si="5"/>
+        <v>2.1</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="6"/>
+        <v>6.4443858946783861</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="S6" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>2</v>
       </c>
@@ -15376,11 +15695,11 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.4443858946783861</v>
       </c>
       <c r="G7">
@@ -15388,11 +15707,40 @@
         <v>500</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="L7" s="8">
+        <v>2</v>
+      </c>
+      <c r="M7" s="4">
+        <v>2</v>
+      </c>
+      <c r="N7" s="4">
+        <f xml:space="preserve"> 8.4 / 2</f>
+        <v>4.2</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" si="5"/>
+        <v>2.1</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="6"/>
+        <v>6.4443858946783861</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="S7" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>5</v>
       </c>
@@ -15406,11 +15754,11 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.4443858946783861</v>
       </c>
       <c r="G8">
@@ -15418,11 +15766,40 @@
         <v>200</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="L8" s="8">
+        <v>5</v>
+      </c>
+      <c r="M8" s="4">
+        <v>2</v>
+      </c>
+      <c r="N8" s="4">
+        <f xml:space="preserve"> 8.4 / 2</f>
+        <v>4.2</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" si="5"/>
+        <v>2.1</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="6"/>
+        <v>6.4443858946783861</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="S8" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>10</v>
       </c>
@@ -15436,11 +15813,11 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.08</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.3612666992552311</v>
       </c>
       <c r="G9">
@@ -15448,11 +15825,40 @@
         <v>100</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="L9" s="8">
+        <v>10</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2</v>
+      </c>
+      <c r="N9" s="4">
+        <f xml:space="preserve"> 8.32 / 2</f>
+        <v>4.16</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="5"/>
+        <v>2.08</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="6"/>
+        <v>6.3612666992552311</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="S9" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>20</v>
       </c>
@@ -15466,11 +15872,11 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.08</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.3612666992552311</v>
       </c>
       <c r="G10">
@@ -15478,11 +15884,40 @@
         <v>50</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="L10" s="8">
+        <v>20</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2</v>
+      </c>
+      <c r="N10" s="4">
+        <f xml:space="preserve"> 8.32 / 2</f>
+        <v>4.16</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="5"/>
+        <v>2.08</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="6"/>
+        <v>6.3612666992552311</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="S10" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>30</v>
       </c>
@@ -15496,11 +15931,11 @@
         <v>-2.5</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.02</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.107027388932476</v>
       </c>
       <c r="G11">
@@ -15508,11 +15943,40 @@
         <v>33.333333333333336</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-27</v>
       </c>
+      <c r="L11" s="8">
+        <v>30</v>
+      </c>
+      <c r="M11" s="4">
+        <v>2</v>
+      </c>
+      <c r="N11" s="4">
+        <f xml:space="preserve"> 8.08 / 2</f>
+        <v>4.04</v>
+      </c>
+      <c r="O11" s="4">
+        <v>-2.5</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="5"/>
+        <v>2.02</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="6"/>
+        <v>6.107027388932476</v>
+      </c>
+      <c r="R11" s="5">
+        <f t="shared" si="1"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="S11" s="9">
+        <f t="shared" si="7"/>
+        <v>-27</v>
+      </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>50</v>
       </c>
@@ -15526,11 +15990,11 @@
         <v>-3</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5836249209524964</v>
       </c>
       <c r="G12">
@@ -15538,11 +16002,40 @@
         <v>20</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-54</v>
       </c>
+      <c r="L12" s="8">
+        <v>50</v>
+      </c>
+      <c r="M12" s="4">
+        <v>2</v>
+      </c>
+      <c r="N12" s="4">
+        <f xml:space="preserve"> 4.8 / 2</f>
+        <v>2.4</v>
+      </c>
+      <c r="O12" s="4">
+        <v>-3</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="6"/>
+        <v>1.5836249209524964</v>
+      </c>
+      <c r="R12" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="S12" s="9">
+        <f t="shared" si="7"/>
+        <v>-54</v>
+      </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>100</v>
       </c>
@@ -15556,11 +16049,11 @@
         <v>-2.4</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.7314401287412551</v>
       </c>
       <c r="G13">
@@ -15568,11 +16061,40 @@
         <v>10</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-86.399999999999991</v>
       </c>
+      <c r="L13" s="8">
+        <v>100</v>
+      </c>
+      <c r="M13" s="4">
+        <v>2</v>
+      </c>
+      <c r="N13" s="4">
+        <f xml:space="preserve"> 2.32 / 2</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="O13" s="4">
+        <v>-2.4</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="5"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" si="6"/>
+        <v>-4.7314401287412551</v>
+      </c>
+      <c r="R13" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="S13" s="9">
+        <f t="shared" si="7"/>
+        <v>-86.399999999999991</v>
+      </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>200</v>
       </c>
@@ -15586,11 +16108,11 @@
         <v>-1.6</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-10.457574905606752</v>
       </c>
       <c r="G14">
@@ -15598,11 +16120,40 @@
         <v>5</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-115.2</v>
       </c>
+      <c r="L14" s="8">
+        <v>200</v>
+      </c>
+      <c r="M14" s="4">
+        <v>2</v>
+      </c>
+      <c r="N14" s="4">
+        <f xml:space="preserve"> 1.2 / 2</f>
+        <v>0.6</v>
+      </c>
+      <c r="O14" s="4">
+        <v>-1.6</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="6"/>
+        <v>-10.457574905606752</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="S14" s="9">
+        <f t="shared" si="7"/>
+        <v>-115.2</v>
+      </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>300</v>
       </c>
@@ -15616,11 +16167,11 @@
         <v>-1.25</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-13.151546383555875</v>
       </c>
       <c r="G15">
@@ -15628,11 +16179,40 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-135</v>
       </c>
+      <c r="L15" s="8">
+        <v>300</v>
+      </c>
+      <c r="M15" s="4">
+        <v>2</v>
+      </c>
+      <c r="N15" s="4">
+        <f xml:space="preserve"> 0.88 / 2</f>
+        <v>0.44</v>
+      </c>
+      <c r="O15" s="4">
+        <v>-1.25</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="5"/>
+        <v>0.22</v>
+      </c>
+      <c r="Q15" s="5">
+        <f t="shared" si="6"/>
+        <v>-13.151546383555875</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="S15" s="9">
+        <f t="shared" si="7"/>
+        <v>-135</v>
+      </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>500</v>
       </c>
@@ -15646,11 +16226,11 @@
         <v>-0.8</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-18.416375079047505</v>
       </c>
       <c r="G16">
@@ -15658,15 +16238,47 @@
         <v>2</v>
       </c>
       <c r="H16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>-144</v>
+      </c>
+      <c r="L16" s="8">
+        <v>500</v>
+      </c>
+      <c r="M16" s="4">
+        <v>2</v>
+      </c>
+      <c r="N16" s="4">
+        <f xml:space="preserve"> 0.48 / 2</f>
+        <v>0.24</v>
+      </c>
+      <c r="O16" s="4">
+        <v>-0.8</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="5"/>
+        <v>0.12</v>
+      </c>
+      <c r="Q16" s="5">
+        <f t="shared" si="6"/>
+        <v>-18.416375079047505</v>
+      </c>
+      <c r="R16" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S16" s="9">
+        <f t="shared" si="7"/>
         <v>-144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="P1:S1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:H1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15753,7 +16365,7 @@
         <f>ABS(C3/B3)</f>
         <v>0.33</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <f>20*LOG10(E3)</f>
         <v>-9.6297212024422496</v>
       </c>
@@ -15784,7 +16396,7 @@
         <f t="shared" ref="E4:E10" si="1">ABS(C4/B4)</f>
         <v>0.38</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <f t="shared" ref="F4:F10" si="2">20*LOG10(E4)</f>
         <v>-8.4043280676637959</v>
       </c>
@@ -15815,7 +16427,7 @@
         <f t="shared" si="1"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <f t="shared" si="2"/>
         <v>-5.0362394598759908</v>
       </c>
@@ -15849,7 +16461,7 @@
         <f t="shared" si="1"/>
         <v>0.88</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <f t="shared" si="2"/>
         <v>-1.1103465569966273</v>
       </c>
@@ -15880,7 +16492,7 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <f t="shared" si="2"/>
         <v>3.5218251811136247</v>
       </c>
@@ -15911,7 +16523,7 @@
         <f t="shared" si="1"/>
         <v>3.4</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <f t="shared" si="2"/>
         <v>10.629578340845104</v>
       </c>
@@ -15942,7 +16554,7 @@
         <f t="shared" si="1"/>
         <v>6.56</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <f t="shared" si="2"/>
         <v>16.338076787513206</v>
       </c>
@@ -15973,7 +16585,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <f t="shared" si="2"/>
         <v>21.583624920952499</v>
       </c>
@@ -16003,7 +16615,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="H13" sqref="A3:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -16080,15 +16692,15 @@
         <f>ABS(C3/B3)</f>
         <v>0.16</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <f>20*LOG10(E3)</f>
         <v>-15.917600346881503</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G13" si="0">1/(A3)*1000</f>
         <v>10000</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <f>(D3/G3)*360</f>
         <v>90</v>
       </c>
@@ -16111,15 +16723,15 @@
         <f t="shared" ref="E4:E13" si="1">ABS(C4/B4)</f>
         <v>0.16</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <f t="shared" ref="F4:F13" si="2">20*LOG10(E4)</f>
         <v>-15.917600346881503</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <f t="shared" ref="H4:H13" si="3">(D4/G4)*360</f>
         <v>90</v>
       </c>
@@ -16142,15 +16754,15 @@
         <f t="shared" si="1"/>
         <v>0.34</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <f t="shared" si="2"/>
         <v>-9.3704216591548963</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
@@ -16172,15 +16784,15 @@
         <f t="shared" ref="E6" si="4">ABS(C6/B6)</f>
         <v>0.5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <f t="shared" ref="F6" si="5">20*LOG10(E6)</f>
         <v>-6.0205999132796242</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <f t="shared" ref="G6" si="6">1/(A6)*1000</f>
         <v>1333.3333333333333</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f t="shared" ref="H6" si="7">(D6/G6)*360</f>
         <v>94.5</v>
       </c>
@@ -16203,15 +16815,15 @@
         <f t="shared" si="1"/>
         <v>0.66</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <f t="shared" si="2"/>
         <v>-3.6091212891626263</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
@@ -16233,15 +16845,15 @@
         <f t="shared" ref="E8" si="8">ABS(C8/B8)</f>
         <v>0.92</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <f t="shared" ref="F8" si="9">20*LOG10(E8)</f>
         <v>-0.72424345308889426</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <f t="shared" ref="G8" si="10">1/(A8)*1000</f>
         <v>666.66666666666663</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <f t="shared" ref="H8" si="11">(D8/G8)*360</f>
         <v>86.4</v>
       </c>
@@ -16264,15 +16876,15 @@
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <f t="shared" si="2"/>
         <v>1.5836249209524964</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <f t="shared" si="3"/>
         <v>79.2</v>
       </c>
@@ -16295,15 +16907,15 @@
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <f t="shared" si="2"/>
         <v>8.9431606268443851</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <f t="shared" si="3"/>
         <v>67.5</v>
       </c>
@@ -16326,15 +16938,15 @@
         <f t="shared" si="1"/>
         <v>4.76</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <f t="shared" si="2"/>
         <v>13.552139054409862</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
@@ -16357,15 +16969,15 @@
         <f t="shared" si="1"/>
         <v>6.44</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <f t="shared" si="2"/>
         <v>16.177717347196243</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
@@ -16388,15 +17000,15 @@
         <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <f t="shared" si="2"/>
         <v>17.146649928625372</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <f t="shared" si="3"/>
         <v>22.5</v>
       </c>
@@ -16418,7 +17030,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+      <selection activeCell="H10" sqref="A3:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -16491,15 +17103,15 @@
         <f t="shared" ref="E3:E10" si="0">ABS(C3/B3)</f>
         <v>22.8</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <f t="shared" ref="F3:F10" si="1">20*LOG10(E3)</f>
         <v>27.158696940009076</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G10" si="2">1/(A3)*1000</f>
         <v>3333.3333333333335</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <f t="shared" ref="H3:H10" si="3">(D3/G3)*360</f>
         <v>-80.999999999999986</v>
       </c>
@@ -16521,15 +17133,15 @@
         <f t="shared" si="0"/>
         <v>14.4</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <f t="shared" si="1"/>
         <v>23.167249841904997</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <f t="shared" si="3"/>
         <v>-90</v>
       </c>
@@ -16551,15 +17163,15 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <f t="shared" si="1"/>
         <v>17.616271845615827</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <f t="shared" si="3"/>
         <v>-90</v>
       </c>
@@ -16581,15 +17193,15 @@
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <f t="shared" si="1"/>
         <v>11.126050015345745</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f t="shared" si="3"/>
         <v>-93.600000000000009</v>
       </c>
@@ -16611,15 +17223,15 @@
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <f t="shared" si="1"/>
         <v>4.0823996531184958</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f t="shared" si="3"/>
         <v>-90</v>
       </c>
@@ -16641,15 +17253,15 @@
         <f t="shared" si="0"/>
         <v>1.26</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <f t="shared" si="1"/>
         <v>2.0074109023512583</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <f t="shared" si="3"/>
         <v>-90</v>
       </c>
@@ -16671,15 +17283,15 @@
         <f t="shared" si="0"/>
         <v>0.94</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
         <v>-0.53744292800602733</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <f t="shared" si="3"/>
         <v>-72</v>
       </c>
@@ -16701,15 +17313,15 @@
         <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <f t="shared" si="1"/>
         <v>-2.8533500713746314</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <f t="shared" si="3"/>
         <v>-90</v>
       </c>
@@ -16730,8 +17342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36C5275-F5DF-E34C-B038-68E21E104E90}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -16804,16 +17416,16 @@
         <f>ABS(C3/B3)</f>
         <v>2.56</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <f>20*LOG10(E3)</f>
         <v>8.1647993062369917</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G13" si="0">1/(A3)*1000</f>
         <v>10000</v>
       </c>
       <c r="H3">
-        <f>((D3/G3)*360)-180</f>
+        <f t="shared" ref="H3:H13" si="1">((D3/G3)*360)-180</f>
         <v>-180</v>
       </c>
     </row>
@@ -16831,19 +17443,19 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E13" si="1">ABS(C4/B4)</f>
+        <f t="shared" ref="E4:E13" si="2">ABS(C4/B4)</f>
         <v>2.5</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F13" si="2">20*LOG10(E4)</f>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F13" si="3">20*LOG10(E4)</f>
         <v>7.9588001734407516</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="H4">
-        <f>((D4/G4)*360)-180</f>
+        <f t="shared" si="1"/>
         <v>-180</v>
       </c>
     </row>
@@ -16861,19 +17473,19 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
+      <c r="F5" s="2">
+        <f t="shared" si="3"/>
         <v>7.9588001734407516</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="H5">
-        <f>((D5/G5)*360)-180</f>
+        <f t="shared" si="1"/>
         <v>-180</v>
       </c>
     </row>
@@ -16891,19 +17503,19 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6" si="3">ABS(C6/B6)</f>
+        <f t="shared" ref="E6" si="4">ABS(C6/B6)</f>
         <v>2.44</v>
       </c>
-      <c r="F6">
-        <f t="shared" ref="F6" si="4">20*LOG10(E6)</f>
+      <c r="F6" s="2">
+        <f t="shared" ref="F6" si="5">20*LOG10(E6)</f>
         <v>7.7477965267745885</v>
       </c>
-      <c r="G6">
-        <f t="shared" ref="G6" si="5">1/(A6)*1000</f>
+      <c r="G6" s="2">
+        <f t="shared" ref="G6" si="6">1/(A6)*1000</f>
         <v>1333.3333333333333</v>
       </c>
       <c r="H6">
-        <f>((D6/G6)*360)-180</f>
+        <f t="shared" si="1"/>
         <v>-173.25</v>
       </c>
     </row>
@@ -16921,19 +17533,19 @@
         <v>50</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.44</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
+      <c r="F7" s="2">
+        <f t="shared" si="3"/>
         <v>7.7477965267745885</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="H7">
-        <f>((D7/G7)*360)-180</f>
+        <f t="shared" si="1"/>
         <v>-162</v>
       </c>
     </row>
@@ -16951,19 +17563,19 @@
         <v>50</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8" si="6">ABS(C8/B8)</f>
+        <f t="shared" ref="E8" si="7">ABS(C8/B8)</f>
         <v>2.4</v>
       </c>
-      <c r="F8">
-        <f t="shared" ref="F8" si="7">20*LOG10(E8)</f>
+      <c r="F8" s="2">
+        <f t="shared" ref="F8" si="8">20*LOG10(E8)</f>
         <v>7.6042248342321201</v>
       </c>
-      <c r="G8">
-        <f t="shared" ref="G8" si="8">1/(A8)*1000</f>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8" si="9">1/(A8)*1000</f>
         <v>666.66666666666663</v>
       </c>
       <c r="H8">
-        <f>((D8/G8)*360)-180</f>
+        <f t="shared" si="1"/>
         <v>-153</v>
       </c>
     </row>
@@ -16981,19 +17593,19 @@
         <v>50</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2799999999999998</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
+      <c r="F9" s="2">
+        <f t="shared" si="3"/>
         <v>7.158696940009075</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="H9">
-        <f>((D9/G9)*360)-180</f>
+        <f t="shared" si="1"/>
         <v>-144</v>
       </c>
     </row>
@@ -17011,19 +17623,19 @@
         <v>30</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.06</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
+      <c r="F10" s="2">
+        <f t="shared" si="3"/>
         <v>6.2773444073830689</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="H10">
-        <f>((D10/G10)*360)-180</f>
+        <f t="shared" si="1"/>
         <v>-126</v>
       </c>
     </row>
@@ -17041,19 +17653,19 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.44</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
+      <c r="F11" s="2">
+        <f t="shared" si="3"/>
         <v>3.1672498419049928</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H11">
-        <f>((D11/G11)*360)-180</f>
+        <f t="shared" si="1"/>
         <v>-108</v>
       </c>
     </row>
@@ -17071,19 +17683,19 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.04</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
+      <c r="F12" s="2">
+        <f t="shared" si="3"/>
         <v>0.3406667859756074</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="H12">
-        <f>((D12/G12)*360)-180</f>
+        <f t="shared" si="1"/>
         <v>-108</v>
       </c>
     </row>
@@ -17101,19 +17713,19 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.77600000000000002</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
+      <c r="F13" s="2">
+        <f t="shared" si="3"/>
         <v>-2.2027655748362309</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H13">
-        <f>((D13/G13)*360)-180</f>
+        <f t="shared" si="1"/>
         <v>-90</v>
       </c>
     </row>
@@ -17134,7 +17746,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -18057,7 +18669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1A3B9C-72EB-D146-A688-E692EF7AAE67}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
